--- a/biology/Médecine/Couverture_lestée/Couverture_lestée.xlsx
+++ b/biology/Médecine/Couverture_lestée/Couverture_lestée.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Couverture_lest%C3%A9e</t>
+          <t>Couverture_lestée</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Une couverture lestée ou une couette lestée est une couverture de literie alourdie par des billes ou des fibres, utilisée pour améliorer le bien-être pendant le sommeil.
-Son fonctionnement repose sur le principe de la pression tactile profonde (deep touch pressure) par l'application d'un poids compris entre 3 et 14 kg sur le corps[1]. Il existe peu d'études de qualité sur son efficacité[2],[1]. Seule la réduction de l'anxiété est démontrée, tandis que son efficacité dans la lutte contre l'insomnie n'est pas mise en évidence[2]. Il n'y pas d'effet secondaire connu[1]. La couverture lestée est prescrite en Suède dans le cadre de certains troubles[1]. Un inconvénient est son coût financier élevé[1].
+Son fonctionnement repose sur le principe de la pression tactile profonde (deep touch pressure) par l'application d'un poids compris entre 3 et 14 kg sur le corps. Il existe peu d'études de qualité sur son efficacité,. Seule la réduction de l'anxiété est démontrée, tandis que son efficacité dans la lutte contre l'insomnie n'est pas mise en évidence. Il n'y pas d'effet secondaire connu. La couverture lestée est prescrite en Suède dans le cadre de certains troubles. Un inconvénient est son coût financier élevé.
 </t>
         </is>
       </c>
